--- a/Batch2-Final.xlsx
+++ b/Batch2-Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkonsonlas\psScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34D2892-80AD-4BB7-8788-38B45ADEFBCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46595706-1092-4648-9CD0-19BCE5BF1BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{FB9AE880-A322-4E58-BABC-5240BF839D41}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{FB9AE880-A322-4E58-BABC-5240BF839D41}"/>
   </bookViews>
   <sheets>
     <sheet name="Batch2-Final" sheetId="1" r:id="rId1"/>
@@ -2123,7 +2123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2141,6 +2141,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2519,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AE4FBD-66E4-4AA0-B0B6-D3ED8CB1EBEC}">
   <dimension ref="A1:F324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A52" sqref="A43:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3090,7 +3091,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+      <c r="A32" s="15">
         <v>44237</v>
       </c>
       <c r="B32" s="14" t="s">
@@ -3110,7 +3111,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33" s="15">
         <v>44237</v>
       </c>
       <c r="B33" s="14"/>
@@ -3128,7 +3129,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+      <c r="A34" s="15">
         <v>44237</v>
       </c>
       <c r="B34" s="14"/>
@@ -3146,7 +3147,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35" s="15">
         <v>44237</v>
       </c>
       <c r="B35" s="14"/>
@@ -3164,7 +3165,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+      <c r="A36" s="15">
         <v>44237</v>
       </c>
       <c r="B36" s="14"/>
@@ -3182,7 +3183,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="A37" s="15">
         <v>44237</v>
       </c>
       <c r="B37" s="14" t="s">
@@ -3202,7 +3203,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="15">
         <v>44237</v>
       </c>
       <c r="B38" s="14"/>
@@ -3220,7 +3221,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+      <c r="A39" s="15">
         <v>44237</v>
       </c>
       <c r="B39" s="14"/>
@@ -3238,7 +3239,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="A40" s="15">
         <v>44237</v>
       </c>
       <c r="B40" s="14"/>
@@ -3256,7 +3257,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="A41" s="15">
         <v>44237</v>
       </c>
       <c r="B41" s="14"/>
@@ -3274,7 +3275,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
+      <c r="A42" s="15">
         <v>44237</v>
       </c>
       <c r="B42" s="14"/>
@@ -3292,10 +3293,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
+      <c r="A43" s="15">
         <v>44238</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="17" t="s">
         <v>619</v>
       </c>
       <c r="C43" t="s">
@@ -3312,7 +3313,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
+      <c r="A44" s="15">
         <v>44238</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -3329,7 +3330,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="14">
+      <c r="A45" s="15">
         <v>44238</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -3346,7 +3347,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
+      <c r="A46" s="15">
         <v>44238</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -3363,7 +3364,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
+      <c r="A47" s="15">
         <v>44238</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -3380,10 +3381,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
+      <c r="A48" s="15">
         <v>44238</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="17" t="s">
         <v>620</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -3400,7 +3401,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
+      <c r="A49" s="15">
         <v>44238</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -3417,7 +3418,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
+      <c r="A50" s="15">
         <v>44238</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -3434,7 +3435,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
+      <c r="A51" s="15">
         <v>44238</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -3451,7 +3452,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
+      <c r="A52" s="15">
         <v>44238</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -7498,12 +7499,14 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B22" r:id="rId1" xr:uid="{149CABA5-4CF7-4C7D-82BB-B47A8B72AA70}"/>
+    <hyperlink ref="B43" r:id="rId2" xr:uid="{2AB2D1B5-B521-4F2C-85C3-8EDB2ED488C9}"/>
+    <hyperlink ref="B48" r:id="rId3" xr:uid="{ACDD217E-409C-48CD-B51A-B2D303DC74D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <tableParts count="2">
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Batch2-Final.xlsx
+++ b/Batch2-Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkonsonlas\psScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46595706-1092-4648-9CD0-19BCE5BF1BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437D1673-5052-4B23-81AA-B035DBC201B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{FB9AE880-A322-4E58-BABC-5240BF839D41}"/>
+    <workbookView xWindow="11955" yWindow="3855" windowWidth="12285" windowHeight="11385" xr2:uid="{FB9AE880-A322-4E58-BABC-5240BF839D41}"/>
   </bookViews>
   <sheets>
     <sheet name="Batch2-Final" sheetId="1" r:id="rId1"/>
@@ -2520,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AE4FBD-66E4-4AA0-B0B6-D3ED8CB1EBEC}">
   <dimension ref="A1:F324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A52" sqref="A43:A52"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3469,7 +3469,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
+      <c r="A53" s="15">
         <v>44239</v>
       </c>
       <c r="B53" t="s">
@@ -3489,7 +3489,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
+      <c r="A54" s="15">
         <v>44239</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -3506,7 +3506,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
+      <c r="A55" s="15">
         <v>44239</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -3523,7 +3523,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
+      <c r="A56" s="15">
         <v>44239</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -3540,7 +3540,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="14">
+      <c r="A57" s="15">
         <v>44239</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -3557,7 +3557,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="14">
+      <c r="A58" s="15">
         <v>44239</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -3574,7 +3574,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="14">
+      <c r="A59" s="15">
         <v>44239</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -3591,7 +3591,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="14">
+      <c r="A60" s="15">
         <v>44239</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -3608,7 +3608,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
+      <c r="A61" s="15">
         <v>44239</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -3625,7 +3625,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="14">
+      <c r="A62" s="15">
         <v>44239</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -3642,7 +3642,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="14">
+      <c r="A63" s="15">
         <v>44239</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -3900,7 +3900,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="14">
+      <c r="A78" s="15">
         <v>44239</v>
       </c>
       <c r="B78" t="s">
@@ -3920,7 +3920,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="14">
+      <c r="A79" s="15">
         <v>44239</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -3937,7 +3937,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="14">
+      <c r="A80" s="15">
         <v>44239</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -3954,7 +3954,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="14">
+      <c r="A81" s="15">
         <v>44239</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -3971,7 +3971,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="14">
+      <c r="A82" s="15">
         <v>44239</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -3988,7 +3988,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="14">
+      <c r="A83" s="15">
         <v>44239</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -4005,7 +4005,9 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
+      <c r="A84" s="15">
+        <v>44242</v>
+      </c>
       <c r="B84" t="s">
         <v>623</v>
       </c>
@@ -4023,6 +4025,9 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="15">
+        <v>44242</v>
+      </c>
       <c r="C85" s="2" t="s">
         <v>162</v>
       </c>
@@ -4037,6 +4042,9 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="15">
+        <v>44242</v>
+      </c>
       <c r="C86" s="2" t="s">
         <v>162</v>
       </c>
@@ -4051,6 +4059,9 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="15">
+        <v>44242</v>
+      </c>
       <c r="C87" s="2" t="s">
         <v>162</v>
       </c>
@@ -4065,6 +4076,9 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="15">
+        <v>44242</v>
+      </c>
       <c r="C88" s="2" t="s">
         <v>162</v>
       </c>
@@ -4079,6 +4093,9 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="15">
+        <v>44242</v>
+      </c>
       <c r="C89" s="2" t="s">
         <v>162</v>
       </c>
@@ -4093,6 +4110,9 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="15">
+        <v>44242</v>
+      </c>
       <c r="C90" s="2" t="s">
         <v>162</v>
       </c>
@@ -4107,6 +4127,9 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="15">
+        <v>44242</v>
+      </c>
       <c r="C91" s="2" t="s">
         <v>162</v>
       </c>
@@ -4260,6 +4283,9 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="15">
+        <v>44242</v>
+      </c>
       <c r="B100" t="s">
         <v>625</v>
       </c>
@@ -4277,6 +4303,9 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="15">
+        <v>44242</v>
+      </c>
       <c r="C101" s="7" t="s">
         <v>192</v>
       </c>
@@ -4291,6 +4320,9 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="15">
+        <v>44242</v>
+      </c>
       <c r="C102" t="s">
         <v>192</v>
       </c>
@@ -4305,6 +4337,9 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="15">
+        <v>44242</v>
+      </c>
       <c r="C103" t="s">
         <v>192</v>
       </c>
@@ -4319,6 +4354,9 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="15">
+        <v>44242</v>
+      </c>
       <c r="C104" t="s">
         <v>192</v>
       </c>
@@ -4333,6 +4371,9 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="15">
+        <v>44242</v>
+      </c>
       <c r="C105" t="s">
         <v>192</v>
       </c>
@@ -4347,6 +4388,9 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="15">
+        <v>44242</v>
+      </c>
       <c r="C106" t="s">
         <v>192</v>
       </c>
@@ -4361,6 +4405,9 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="15">
+        <v>44242</v>
+      </c>
       <c r="C107" t="s">
         <v>192</v>
       </c>
@@ -4375,6 +4422,9 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="15">
+        <v>44242</v>
+      </c>
       <c r="C108" s="7" t="s">
         <v>192</v>
       </c>
@@ -4389,6 +4439,9 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="15">
+        <v>44242</v>
+      </c>
       <c r="C109" s="7" t="s">
         <v>192</v>
       </c>
@@ -4403,6 +4456,9 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="15">
+        <v>44242</v>
+      </c>
       <c r="C110" s="7" t="s">
         <v>192</v>
       </c>
@@ -4417,6 +4473,9 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="14">
+        <v>44243</v>
+      </c>
       <c r="B111" t="s">
         <v>626</v>
       </c>
@@ -4434,6 +4493,9 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="14">
+        <v>44243</v>
+      </c>
       <c r="C112" s="7" t="s">
         <v>212</v>
       </c>
@@ -4447,7 +4509,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="14">
+        <v>44243</v>
+      </c>
       <c r="C113" t="s">
         <v>212</v>
       </c>
@@ -4461,7 +4526,10 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="14">
+        <v>44243</v>
+      </c>
       <c r="C114" s="7" t="s">
         <v>212</v>
       </c>
@@ -4475,7 +4543,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="14">
+        <v>44243</v>
+      </c>
       <c r="B115" t="s">
         <v>627</v>
       </c>
@@ -4492,7 +4563,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="14">
+        <v>44243</v>
+      </c>
       <c r="C116" s="7" t="s">
         <v>220</v>
       </c>
@@ -4506,7 +4580,10 @@
         <v>224</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="14">
+        <v>44243</v>
+      </c>
       <c r="C117" t="s">
         <v>220</v>
       </c>
@@ -4520,7 +4597,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="14">
+        <v>44243</v>
+      </c>
       <c r="C118" t="s">
         <v>220</v>
       </c>
@@ -4534,7 +4614,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="14">
+        <v>44243</v>
+      </c>
       <c r="C119" s="7" t="s">
         <v>220</v>
       </c>
@@ -4548,7 +4631,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="14">
+        <v>44243</v>
+      </c>
       <c r="C120" s="7" t="s">
         <v>220</v>
       </c>
@@ -4562,7 +4648,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="14">
+        <v>44244</v>
+      </c>
       <c r="B121" t="s">
         <v>628</v>
       </c>
@@ -4579,7 +4668,10 @@
         <v>233</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="14">
+        <v>44244</v>
+      </c>
       <c r="C122" s="7" t="s">
         <v>231</v>
       </c>
@@ -4593,7 +4685,10 @@
         <v>235</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="14">
+        <v>44244</v>
+      </c>
       <c r="C123" t="s">
         <v>231</v>
       </c>
@@ -4607,7 +4702,10 @@
         <v>237</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="14">
+        <v>44244</v>
+      </c>
       <c r="C124" t="s">
         <v>231</v>
       </c>
@@ -4621,7 +4719,10 @@
         <v>239</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="14">
+        <v>44244</v>
+      </c>
       <c r="C125" s="7" t="s">
         <v>231</v>
       </c>
@@ -4635,7 +4736,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="14">
+        <v>44244</v>
+      </c>
       <c r="C126" s="7" t="s">
         <v>231</v>
       </c>
@@ -4649,7 +4753,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="14">
+        <v>44244</v>
+      </c>
       <c r="C127" s="7" t="s">
         <v>231</v>
       </c>
@@ -4663,7 +4770,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="14">
+        <v>44244</v>
+      </c>
       <c r="B128" t="s">
         <v>629</v>
       </c>
@@ -4680,7 +4790,10 @@
         <v>245</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="14">
+        <v>44244</v>
+      </c>
       <c r="C129" s="7" t="s">
         <v>243</v>
       </c>
@@ -4694,7 +4807,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="14">
+        <v>44244</v>
+      </c>
       <c r="C130" t="s">
         <v>243</v>
       </c>
@@ -4708,7 +4824,10 @@
         <v>249</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="14">
+        <v>44244</v>
+      </c>
       <c r="C131" t="s">
         <v>243</v>
       </c>
@@ -4722,7 +4841,10 @@
         <v>251</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="14">
+        <v>44244</v>
+      </c>
       <c r="C132" t="s">
         <v>243</v>
       </c>
@@ -4736,7 +4858,10 @@
         <v>253</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="14">
+        <v>44244</v>
+      </c>
       <c r="C133" t="s">
         <v>243</v>
       </c>
@@ -4750,7 +4875,10 @@
         <v>255</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="14">
+        <v>44244</v>
+      </c>
       <c r="C134" t="s">
         <v>243</v>
       </c>
@@ -4764,7 +4892,10 @@
         <v>257</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="14">
+        <v>44244</v>
+      </c>
       <c r="C135" t="s">
         <v>243</v>
       </c>
@@ -4778,7 +4909,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="14">
+        <v>44244</v>
+      </c>
       <c r="C136" t="s">
         <v>243</v>
       </c>
@@ -4792,7 +4926,10 @@
         <v>261</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="14">
+        <v>44244</v>
+      </c>
       <c r="C137" t="s">
         <v>243</v>
       </c>
@@ -4806,7 +4943,10 @@
         <v>263</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="14">
+        <v>44244</v>
+      </c>
       <c r="C138" t="s">
         <v>243</v>
       </c>
@@ -4820,7 +4960,10 @@
         <v>265</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="14">
+        <v>44244</v>
+      </c>
       <c r="C139" s="7" t="s">
         <v>243</v>
       </c>
@@ -4834,7 +4977,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="14">
+        <v>44244</v>
+      </c>
       <c r="C140" s="7" t="s">
         <v>243</v>
       </c>
@@ -4848,7 +4994,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="14">
+        <v>44244</v>
+      </c>
       <c r="C141" s="7" t="s">
         <v>243</v>
       </c>
@@ -4862,7 +5011,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="14">
+        <v>44244</v>
+      </c>
       <c r="C142" s="7" t="s">
         <v>243</v>
       </c>
@@ -4876,7 +5028,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="14">
+        <v>44244</v>
+      </c>
       <c r="C143" s="7" t="s">
         <v>243</v>
       </c>
@@ -4890,7 +5045,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="14">
+        <v>44244</v>
+      </c>
       <c r="C144" s="7" t="s">
         <v>243</v>
       </c>
@@ -4904,7 +5062,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="14">
+        <v>44244</v>
+      </c>
       <c r="C145" s="7" t="s">
         <v>243</v>
       </c>
@@ -4918,7 +5079,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="14">
+        <v>44245</v>
+      </c>
       <c r="B146" t="s">
         <v>630</v>
       </c>
@@ -4935,7 +5099,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="14">
+        <v>44245</v>
+      </c>
       <c r="C147" s="7" t="s">
         <v>273</v>
       </c>
@@ -4949,7 +5116,10 @@
         <v>277</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="14">
+        <v>44245</v>
+      </c>
       <c r="C148" t="s">
         <v>273</v>
       </c>
@@ -4963,7 +5133,10 @@
         <v>279</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="14">
+        <v>44245</v>
+      </c>
       <c r="C149" t="s">
         <v>273</v>
       </c>
@@ -4977,7 +5150,10 @@
         <v>281</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="14">
+        <v>44245</v>
+      </c>
       <c r="C150" t="s">
         <v>273</v>
       </c>
@@ -4991,7 +5167,10 @@
         <v>283</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="14">
+        <v>44245</v>
+      </c>
       <c r="C151" t="s">
         <v>273</v>
       </c>
@@ -5005,7 +5184,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="14">
+        <v>44245</v>
+      </c>
       <c r="C152" s="7" t="s">
         <v>273</v>
       </c>
@@ -5019,7 +5201,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="14">
+        <v>44245</v>
+      </c>
       <c r="C153" s="7" t="s">
         <v>273</v>
       </c>
@@ -5033,7 +5218,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="14">
+        <v>44245</v>
+      </c>
       <c r="B154" t="s">
         <v>631</v>
       </c>
@@ -5050,7 +5238,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="14">
+        <v>44245</v>
+      </c>
       <c r="C155" s="7" t="s">
         <v>288</v>
       </c>
@@ -5064,7 +5255,10 @@
         <v>292</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="14">
+        <v>44245</v>
+      </c>
       <c r="C156" t="s">
         <v>288</v>
       </c>
@@ -5078,7 +5272,10 @@
         <v>294</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="14">
+        <v>44245</v>
+      </c>
       <c r="C157" t="s">
         <v>288</v>
       </c>
@@ -5092,7 +5289,10 @@
         <v>296</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="14">
+        <v>44245</v>
+      </c>
       <c r="C158" s="7" t="s">
         <v>288</v>
       </c>
@@ -5106,7 +5306,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="14">
+        <v>44246</v>
+      </c>
       <c r="B159" t="s">
         <v>632</v>
       </c>
@@ -5123,7 +5326,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="14">
+        <v>44246</v>
+      </c>
       <c r="C160" s="7" t="s">
         <v>298</v>
       </c>
@@ -5137,7 +5343,10 @@
         <v>302</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="14">
+        <v>44246</v>
+      </c>
       <c r="C161" t="s">
         <v>298</v>
       </c>
@@ -5151,7 +5360,10 @@
         <v>304</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="14">
+        <v>44246</v>
+      </c>
       <c r="C162" t="s">
         <v>298</v>
       </c>
@@ -5165,7 +5377,10 @@
         <v>306</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="14">
+        <v>44246</v>
+      </c>
       <c r="C163" t="s">
         <v>298</v>
       </c>
@@ -5179,7 +5394,10 @@
         <v>308</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="14">
+        <v>44246</v>
+      </c>
       <c r="C164" t="s">
         <v>298</v>
       </c>
@@ -5193,7 +5411,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="14">
+        <v>44246</v>
+      </c>
       <c r="C165" t="s">
         <v>298</v>
       </c>
@@ -5207,7 +5428,10 @@
         <v>312</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="14">
+        <v>44246</v>
+      </c>
       <c r="C166" t="s">
         <v>298</v>
       </c>
@@ -5221,7 +5445,10 @@
         <v>314</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="14">
+        <v>44246</v>
+      </c>
       <c r="C167" s="7" t="s">
         <v>298</v>
       </c>
@@ -5235,7 +5462,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="14">
+        <v>44246</v>
+      </c>
       <c r="C168" s="7" t="s">
         <v>298</v>
       </c>
@@ -5249,7 +5479,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="14">
+        <v>44246</v>
+      </c>
       <c r="C169" s="7" t="s">
         <v>298</v>
       </c>
@@ -5263,7 +5496,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="14">
+        <v>44246</v>
+      </c>
       <c r="B170" t="s">
         <v>633</v>
       </c>
@@ -5280,7 +5516,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="14">
+        <v>44246</v>
+      </c>
       <c r="C171" s="7" t="s">
         <v>318</v>
       </c>
@@ -5294,7 +5533,10 @@
         <v>322</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="14">
+        <v>44246</v>
+      </c>
       <c r="C172" t="s">
         <v>318</v>
       </c>
@@ -5308,7 +5550,10 @@
         <v>324</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="14">
+        <v>44246</v>
+      </c>
       <c r="C173" t="s">
         <v>318</v>
       </c>
@@ -5322,7 +5567,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="14">
+        <v>44246</v>
+      </c>
       <c r="C174" t="s">
         <v>318</v>
       </c>
@@ -5336,7 +5584,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="14">
+        <v>44246</v>
+      </c>
       <c r="C175" t="s">
         <v>318</v>
       </c>
@@ -5350,7 +5601,10 @@
         <v>330</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="14">
+        <v>44246</v>
+      </c>
       <c r="C176" t="s">
         <v>318</v>
       </c>
@@ -5364,7 +5618,10 @@
         <v>332</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="14">
+        <v>44246</v>
+      </c>
       <c r="C177" t="s">
         <v>318</v>
       </c>
@@ -5378,7 +5635,10 @@
         <v>334</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="14">
+        <v>44246</v>
+      </c>
       <c r="C178" s="7" t="s">
         <v>318</v>
       </c>
@@ -5392,7 +5652,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="14">
+        <v>44246</v>
+      </c>
       <c r="C179" s="7" t="s">
         <v>318</v>
       </c>
@@ -5406,7 +5669,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="14">
+        <v>44246</v>
+      </c>
       <c r="C180" s="7" t="s">
         <v>318</v>
       </c>
@@ -5420,7 +5686,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="14"/>
       <c r="B181" t="s">
         <v>634</v>
       </c>
@@ -5437,7 +5704,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="14"/>
       <c r="C182" s="7" t="s">
         <v>338</v>
       </c>
@@ -5451,7 +5719,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
         <v>338</v>
       </c>
@@ -5465,7 +5733,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
         <v>338</v>
       </c>
@@ -5479,7 +5747,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C185" s="7" t="s">
         <v>338</v>
       </c>
@@ -5493,7 +5761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>635</v>
       </c>
@@ -5510,7 +5778,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C187" s="7" t="s">
         <v>348</v>
       </c>
@@ -5524,7 +5792,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
         <v>348</v>
       </c>
@@ -5538,7 +5806,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
         <v>348</v>
       </c>
@@ -5552,7 +5820,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
         <v>348</v>
       </c>
@@ -5566,7 +5834,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
         <v>348</v>
       </c>
@@ -5580,7 +5848,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C192" t="s">
         <v>348</v>
       </c>

--- a/Batch2-Final.xlsx
+++ b/Batch2-Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkonsonlas\psScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437D1673-5052-4B23-81AA-B035DBC201B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC774A1-3757-46FC-907A-BC02F423D32C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11955" yWindow="3855" windowWidth="12285" windowHeight="11385" xr2:uid="{FB9AE880-A322-4E58-BABC-5240BF839D41}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{FB9AE880-A322-4E58-BABC-5240BF839D41}"/>
   </bookViews>
   <sheets>
     <sheet name="Batch2-Final" sheetId="1" r:id="rId1"/>
@@ -2520,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AE4FBD-66E4-4AA0-B0B6-D3ED8CB1EBEC}">
   <dimension ref="A1:F324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:A110"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4473,7 +4473,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="14">
+      <c r="A111" s="15">
         <v>44243</v>
       </c>
       <c r="B111" t="s">
@@ -4493,7 +4493,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="14">
+      <c r="A112" s="15">
         <v>44243</v>
       </c>
       <c r="C112" s="7" t="s">
@@ -4510,7 +4510,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="14">
+      <c r="A113" s="15">
         <v>44243</v>
       </c>
       <c r="C113" t="s">
@@ -4527,7 +4527,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="14">
+      <c r="A114" s="15">
         <v>44243</v>
       </c>
       <c r="C114" s="7" t="s">
@@ -4544,7 +4544,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="14">
+      <c r="A115" s="15">
         <v>44243</v>
       </c>
       <c r="B115" t="s">
@@ -4564,7 +4564,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="14">
+      <c r="A116" s="15">
         <v>44243</v>
       </c>
       <c r="C116" s="7" t="s">
@@ -4581,7 +4581,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="14">
+      <c r="A117" s="15">
         <v>44243</v>
       </c>
       <c r="C117" t="s">
@@ -4598,7 +4598,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="14">
+      <c r="A118" s="15">
         <v>44243</v>
       </c>
       <c r="C118" t="s">
@@ -4615,7 +4615,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="14">
+      <c r="A119" s="15">
         <v>44243</v>
       </c>
       <c r="C119" s="7" t="s">
@@ -4632,7 +4632,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="14">
+      <c r="A120" s="15">
         <v>44243</v>
       </c>
       <c r="C120" s="7" t="s">

--- a/Batch2-Final.xlsx
+++ b/Batch2-Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkonsonlas\psScripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC774A1-3757-46FC-907A-BC02F423D32C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88A3987-8452-4F61-A74B-7095727BFB99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{FB9AE880-A322-4E58-BABC-5240BF839D41}"/>
+    <workbookView xWindow="-1215" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{FB9AE880-A322-4E58-BABC-5240BF839D41}"/>
   </bookViews>
   <sheets>
     <sheet name="Batch2-Final" sheetId="1" r:id="rId1"/>
@@ -2520,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AE4FBD-66E4-4AA0-B0B6-D3ED8CB1EBEC}">
   <dimension ref="A1:F324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="B307" sqref="B307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4649,7 +4649,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="14">
+      <c r="A121" s="15">
         <v>44244</v>
       </c>
       <c r="B121" t="s">
@@ -4669,7 +4669,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="14">
+      <c r="A122" s="15">
         <v>44244</v>
       </c>
       <c r="C122" s="7" t="s">
@@ -4686,7 +4686,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="14">
+      <c r="A123" s="15">
         <v>44244</v>
       </c>
       <c r="C123" t="s">
@@ -4703,7 +4703,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="14">
+      <c r="A124" s="15">
         <v>44244</v>
       </c>
       <c r="C124" t="s">
@@ -4720,7 +4720,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="14">
+      <c r="A125" s="15">
         <v>44244</v>
       </c>
       <c r="C125" s="7" t="s">
@@ -4737,7 +4737,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="14">
+      <c r="A126" s="15">
         <v>44244</v>
       </c>
       <c r="C126" s="7" t="s">
@@ -4754,7 +4754,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="14">
+      <c r="A127" s="15">
         <v>44244</v>
       </c>
       <c r="C127" s="7" t="s">
@@ -4771,7 +4771,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="14">
+      <c r="A128" s="15">
         <v>44244</v>
       </c>
       <c r="B128" t="s">
@@ -4791,7 +4791,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="14">
+      <c r="A129" s="15">
         <v>44244</v>
       </c>
       <c r="C129" s="7" t="s">
@@ -4808,7 +4808,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="14">
+      <c r="A130" s="15">
         <v>44244</v>
       </c>
       <c r="C130" t="s">
@@ -4825,7 +4825,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="14">
+      <c r="A131" s="15">
         <v>44244</v>
       </c>
       <c r="C131" t="s">
@@ -4842,7 +4842,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="14">
+      <c r="A132" s="15">
         <v>44244</v>
       </c>
       <c r="C132" t="s">
@@ -4859,7 +4859,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="14">
+      <c r="A133" s="15">
         <v>44244</v>
       </c>
       <c r="C133" t="s">
@@ -4876,7 +4876,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="14">
+      <c r="A134" s="15">
         <v>44244</v>
       </c>
       <c r="C134" t="s">
@@ -4893,7 +4893,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="14">
+      <c r="A135" s="15">
         <v>44244</v>
       </c>
       <c r="C135" t="s">
@@ -4910,7 +4910,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="14">
+      <c r="A136" s="15">
         <v>44244</v>
       </c>
       <c r="C136" t="s">
@@ -4927,7 +4927,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="14">
+      <c r="A137" s="15">
         <v>44244</v>
       </c>
       <c r="C137" t="s">
@@ -4944,7 +4944,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="14">
+      <c r="A138" s="15">
         <v>44244</v>
       </c>
       <c r="C138" t="s">
@@ -4961,7 +4961,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="14">
+      <c r="A139" s="15">
         <v>44244</v>
       </c>
       <c r="C139" s="7" t="s">
@@ -4978,7 +4978,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="14">
+      <c r="A140" s="15">
         <v>44244</v>
       </c>
       <c r="C140" s="7" t="s">
@@ -4995,7 +4995,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="14">
+      <c r="A141" s="15">
         <v>44244</v>
       </c>
       <c r="C141" s="7" t="s">
@@ -5012,7 +5012,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="14">
+      <c r="A142" s="15">
         <v>44244</v>
       </c>
       <c r="C142" s="7" t="s">
@@ -5029,7 +5029,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="14">
+      <c r="A143" s="15">
         <v>44244</v>
       </c>
       <c r="C143" s="7" t="s">
@@ -5046,7 +5046,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="14">
+      <c r="A144" s="15">
         <v>44244</v>
       </c>
       <c r="C144" s="7" t="s">
@@ -5063,7 +5063,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="14">
+      <c r="A145" s="15">
         <v>44244</v>
       </c>
       <c r="C145" s="7" t="s">
@@ -5080,10 +5080,10 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="14">
+      <c r="A146" s="15">
         <v>44245</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="17" t="s">
         <v>630</v>
       </c>
       <c r="C146" t="s">
@@ -5100,7 +5100,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="14">
+      <c r="A147" s="15">
         <v>44245</v>
       </c>
       <c r="C147" s="7" t="s">
@@ -5117,7 +5117,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="14">
+      <c r="A148" s="15">
         <v>44245</v>
       </c>
       <c r="C148" t="s">
@@ -5134,7 +5134,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="14">
+      <c r="A149" s="15">
         <v>44245</v>
       </c>
       <c r="C149" t="s">
@@ -5151,7 +5151,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="14">
+      <c r="A150" s="15">
         <v>44245</v>
       </c>
       <c r="C150" t="s">
@@ -5168,7 +5168,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="14">
+      <c r="A151" s="15">
         <v>44245</v>
       </c>
       <c r="C151" t="s">
@@ -5185,7 +5185,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="14">
+      <c r="A152" s="15">
         <v>44245</v>
       </c>
       <c r="C152" s="7" t="s">
@@ -5202,7 +5202,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="14">
+      <c r="A153" s="15">
         <v>44245</v>
       </c>
       <c r="C153" s="7" t="s">
@@ -5219,7 +5219,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="14">
+      <c r="A154" s="15">
         <v>44245</v>
       </c>
       <c r="B154" t="s">
@@ -5239,7 +5239,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="14">
+      <c r="A155" s="15">
         <v>44245</v>
       </c>
       <c r="C155" s="7" t="s">
@@ -5256,7 +5256,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="14">
+      <c r="A156" s="15">
         <v>44245</v>
       </c>
       <c r="C156" t="s">
@@ -5273,7 +5273,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="14">
+      <c r="A157" s="15">
         <v>44245</v>
       </c>
       <c r="C157" t="s">
@@ -5290,7 +5290,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="14">
+      <c r="A158" s="15">
         <v>44245</v>
       </c>
       <c r="C158" s="7" t="s">
@@ -5307,7 +5307,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="14">
+      <c r="A159" s="15">
         <v>44246</v>
       </c>
       <c r="B159" t="s">
@@ -5327,7 +5327,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="14">
+      <c r="A160" s="15">
         <v>44246</v>
       </c>
       <c r="C160" s="7" t="s">
@@ -5344,7 +5344,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="14">
+      <c r="A161" s="15">
         <v>44246</v>
       </c>
       <c r="C161" t="s">
@@ -5361,7 +5361,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="14">
+      <c r="A162" s="15">
         <v>44246</v>
       </c>
       <c r="C162" t="s">
@@ -5378,7 +5378,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="14">
+      <c r="A163" s="15">
         <v>44246</v>
       </c>
       <c r="C163" t="s">
@@ -5395,7 +5395,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="14">
+      <c r="A164" s="15">
         <v>44246</v>
       </c>
       <c r="C164" t="s">
@@ -5412,7 +5412,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="14">
+      <c r="A165" s="15">
         <v>44246</v>
       </c>
       <c r="C165" t="s">
@@ -5429,7 +5429,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="14">
+      <c r="A166" s="15">
         <v>44246</v>
       </c>
       <c r="C166" t="s">
@@ -5446,7 +5446,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="14">
+      <c r="A167" s="15">
         <v>44246</v>
       </c>
       <c r="C167" s="7" t="s">
@@ -5463,7 +5463,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="14">
+      <c r="A168" s="15">
         <v>44246</v>
       </c>
       <c r="C168" s="7" t="s">
@@ -5480,7 +5480,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="14">
+      <c r="A169" s="15">
         <v>44246</v>
       </c>
       <c r="C169" s="7" t="s">
@@ -5497,7 +5497,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="14">
+      <c r="A170" s="15">
         <v>44246</v>
       </c>
       <c r="B170" t="s">
@@ -5517,7 +5517,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="14">
+      <c r="A171" s="15">
         <v>44246</v>
       </c>
       <c r="C171" s="7" t="s">
@@ -5534,7 +5534,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="14">
+      <c r="A172" s="15">
         <v>44246</v>
       </c>
       <c r="C172" t="s">
@@ -5551,7 +5551,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="14">
+      <c r="A173" s="15">
         <v>44246</v>
       </c>
       <c r="C173" t="s">
@@ -5568,7 +5568,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="14">
+      <c r="A174" s="15">
         <v>44246</v>
       </c>
       <c r="C174" t="s">
@@ -5585,7 +5585,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="14">
+      <c r="A175" s="15">
         <v>44246</v>
       </c>
       <c r="C175" t="s">
@@ -5602,7 +5602,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="14">
+      <c r="A176" s="15">
         <v>44246</v>
       </c>
       <c r="C176" t="s">
@@ -5619,7 +5619,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="14">
+      <c r="A177" s="15">
         <v>44246</v>
       </c>
       <c r="C177" t="s">
@@ -5636,7 +5636,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="14">
+      <c r="A178" s="15">
         <v>44246</v>
       </c>
       <c r="C178" s="7" t="s">
@@ -5653,7 +5653,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="14">
+      <c r="A179" s="15">
         <v>44246</v>
       </c>
       <c r="C179" s="7" t="s">
@@ -5670,7 +5670,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="14">
+      <c r="A180" s="15">
         <v>44246</v>
       </c>
       <c r="C180" s="7" t="s">
@@ -5687,7 +5687,9 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="14"/>
+      <c r="A181" s="15">
+        <v>44249</v>
+      </c>
       <c r="B181" t="s">
         <v>634</v>
       </c>
@@ -5705,7 +5707,9 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="14"/>
+      <c r="A182" s="15">
+        <v>44249</v>
+      </c>
       <c r="C182" s="7" t="s">
         <v>338</v>
       </c>
@@ -5720,6 +5724,9 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="15">
+        <v>44249</v>
+      </c>
       <c r="C183" t="s">
         <v>338</v>
       </c>
@@ -5734,6 +5741,9 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="15">
+        <v>44249</v>
+      </c>
       <c r="C184" t="s">
         <v>338</v>
       </c>
@@ -5748,6 +5758,9 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="15">
+        <v>44249</v>
+      </c>
       <c r="C185" s="7" t="s">
         <v>338</v>
       </c>
@@ -5762,6 +5775,9 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="15">
+        <v>44249</v>
+      </c>
       <c r="B186" t="s">
         <v>635</v>
       </c>
@@ -5779,6 +5795,9 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="15">
+        <v>44249</v>
+      </c>
       <c r="C187" s="7" t="s">
         <v>348</v>
       </c>
@@ -5793,6 +5812,9 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="15">
+        <v>44249</v>
+      </c>
       <c r="C188" t="s">
         <v>348</v>
       </c>
@@ -5807,6 +5829,9 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="15">
+        <v>44249</v>
+      </c>
       <c r="C189" t="s">
         <v>348</v>
       </c>
@@ -5821,6 +5846,9 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="15">
+        <v>44249</v>
+      </c>
       <c r="C190" t="s">
         <v>348</v>
       </c>
@@ -5835,6 +5863,9 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="15">
+        <v>44249</v>
+      </c>
       <c r="C191" t="s">
         <v>348</v>
       </c>
@@ -5849,6 +5880,9 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="15">
+        <v>44249</v>
+      </c>
       <c r="C192" t="s">
         <v>348</v>
       </c>
@@ -5862,7 +5896,10 @@
         <v>362</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="15">
+        <v>44249</v>
+      </c>
       <c r="C193" t="s">
         <v>348</v>
       </c>
@@ -5876,7 +5913,10 @@
         <v>364</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="15">
+        <v>44249</v>
+      </c>
       <c r="C194" t="s">
         <v>348</v>
       </c>
@@ -5890,7 +5930,10 @@
         <v>366</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="15">
+        <v>44249</v>
+      </c>
       <c r="C195" s="7" t="s">
         <v>348</v>
       </c>
@@ -5904,7 +5947,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="15">
+        <v>44249</v>
+      </c>
       <c r="C196" s="7" t="s">
         <v>348</v>
       </c>
@@ -5918,7 +5964,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="15">
+        <v>44249</v>
+      </c>
       <c r="C197" s="7" t="s">
         <v>348</v>
       </c>
@@ -5932,7 +5981,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="15">
+        <v>44250</v>
+      </c>
       <c r="B198" t="s">
         <v>636</v>
       </c>
@@ -5949,7 +6001,10 @@
         <v>372</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="15">
+        <v>44250</v>
+      </c>
       <c r="C199" s="7" t="s">
         <v>370</v>
       </c>
@@ -5963,7 +6018,10 @@
         <v>374</v>
       </c>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="15">
+        <v>44250</v>
+      </c>
       <c r="C200" t="s">
         <v>370</v>
       </c>
@@ -5977,7 +6035,10 @@
         <v>376</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="15">
+        <v>44250</v>
+      </c>
       <c r="C201" t="s">
         <v>370</v>
       </c>
@@ -5991,7 +6052,10 @@
         <v>378</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="15">
+        <v>44250</v>
+      </c>
       <c r="C202" s="7" t="s">
         <v>370</v>
       </c>
@@ -6005,7 +6069,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="15">
+        <v>44250</v>
+      </c>
       <c r="B203" t="s">
         <v>637</v>
       </c>
@@ -6022,7 +6089,10 @@
         <v>382</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="15">
+        <v>44250</v>
+      </c>
       <c r="C204" s="7" t="s">
         <v>380</v>
       </c>
@@ -6036,7 +6106,10 @@
         <v>384</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="15">
+        <v>44250</v>
+      </c>
       <c r="C205" t="s">
         <v>380</v>
       </c>
@@ -6050,7 +6123,10 @@
         <v>386</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="15">
+        <v>44250</v>
+      </c>
       <c r="C206" t="s">
         <v>380</v>
       </c>
@@ -6064,7 +6140,10 @@
         <v>388</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="15">
+        <v>44250</v>
+      </c>
       <c r="C207" s="7" t="s">
         <v>380</v>
       </c>
@@ -6078,7 +6157,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="15">
+        <v>44251</v>
+      </c>
       <c r="B208" t="s">
         <v>638</v>
       </c>
@@ -6095,7 +6177,10 @@
         <v>392</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="15">
+        <v>44251</v>
+      </c>
       <c r="C209" s="7" t="s">
         <v>390</v>
       </c>
@@ -6109,7 +6194,10 @@
         <v>394</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="15">
+        <v>44251</v>
+      </c>
       <c r="C210" t="s">
         <v>390</v>
       </c>
@@ -6123,7 +6211,10 @@
         <v>396</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="15">
+        <v>44251</v>
+      </c>
       <c r="C211" t="s">
         <v>390</v>
       </c>
@@ -6137,7 +6228,10 @@
         <v>398</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="15">
+        <v>44251</v>
+      </c>
       <c r="C212" t="s">
         <v>390</v>
       </c>
@@ -6151,7 +6245,10 @@
         <v>400</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="15">
+        <v>44251</v>
+      </c>
       <c r="C213" t="s">
         <v>390</v>
       </c>
@@ -6165,7 +6262,10 @@
         <v>402</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="15">
+        <v>44251</v>
+      </c>
       <c r="C214" s="7" t="s">
         <v>390</v>
       </c>
@@ -6179,7 +6279,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="15">
+        <v>44251</v>
+      </c>
       <c r="C215" s="7" t="s">
         <v>390</v>
       </c>
@@ -6193,7 +6296,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="15">
+        <v>44251</v>
+      </c>
       <c r="B216" t="s">
         <v>639</v>
       </c>
@@ -6210,7 +6316,10 @@
         <v>407</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="15">
+        <v>44251</v>
+      </c>
       <c r="C217" s="7" t="s">
         <v>405</v>
       </c>
@@ -6224,7 +6333,10 @@
         <v>409</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="15">
+        <v>44251</v>
+      </c>
       <c r="C218" t="s">
         <v>405</v>
       </c>
@@ -6238,7 +6350,10 @@
         <v>411</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="15">
+        <v>44251</v>
+      </c>
       <c r="C219" t="s">
         <v>405</v>
       </c>
@@ -6252,7 +6367,10 @@
         <v>413</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="15">
+        <v>44251</v>
+      </c>
       <c r="C220" s="7" t="s">
         <v>405</v>
       </c>
@@ -6266,7 +6384,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="15">
+        <v>44252</v>
+      </c>
       <c r="B221" t="s">
         <v>640</v>
       </c>
@@ -6283,7 +6404,10 @@
         <v>417</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="15">
+        <v>44252</v>
+      </c>
       <c r="C222" s="7" t="s">
         <v>415</v>
       </c>
@@ -6297,7 +6421,10 @@
         <v>419</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="15">
+        <v>44252</v>
+      </c>
       <c r="C223" s="7" t="s">
         <v>415</v>
       </c>
@@ -6311,7 +6438,10 @@
         <v>421</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="15">
+        <v>44252</v>
+      </c>
       <c r="C224" t="s">
         <v>415</v>
       </c>
@@ -6325,7 +6455,10 @@
         <v>423</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="15">
+        <v>44252</v>
+      </c>
       <c r="C225" s="7" t="s">
         <v>415</v>
       </c>
@@ -6339,7 +6472,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="15">
+        <v>44252</v>
+      </c>
       <c r="B226" t="s">
         <v>641</v>
       </c>
@@ -6356,7 +6492,10 @@
         <v>427</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="15">
+        <v>44252</v>
+      </c>
       <c r="C227" s="7" t="s">
         <v>425</v>
       </c>
@@ -6370,7 +6509,10 @@
         <v>429</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="15">
+        <v>44252</v>
+      </c>
       <c r="C228" t="s">
         <v>425</v>
       </c>
@@ -6384,7 +6526,10 @@
         <v>431</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="15">
+        <v>44252</v>
+      </c>
       <c r="C229" t="s">
         <v>425</v>
       </c>
@@ -6398,7 +6543,10 @@
         <v>433</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="15">
+        <v>44252</v>
+      </c>
       <c r="C230" t="s">
         <v>425</v>
       </c>
@@ -6412,7 +6560,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="15">
+        <v>44252</v>
+      </c>
       <c r="C231" t="s">
         <v>425</v>
       </c>
@@ -6426,7 +6577,10 @@
         <v>437</v>
       </c>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="15">
+        <v>44252</v>
+      </c>
       <c r="C232" t="s">
         <v>425</v>
       </c>
@@ -6440,7 +6594,10 @@
         <v>439</v>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="15">
+        <v>44252</v>
+      </c>
       <c r="C233" t="s">
         <v>425</v>
       </c>
@@ -6454,7 +6611,10 @@
         <v>441</v>
       </c>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="15">
+        <v>44252</v>
+      </c>
       <c r="C234" s="7" t="s">
         <v>425</v>
       </c>
@@ -6468,7 +6628,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="15">
+        <v>44252</v>
+      </c>
       <c r="C235" s="7" t="s">
         <v>425</v>
       </c>
@@ -6482,7 +6645,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="15">
+        <v>44252</v>
+      </c>
       <c r="C236" s="7" t="s">
         <v>425</v>
       </c>
@@ -6496,7 +6662,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="15">
+        <v>44253</v>
+      </c>
       <c r="B237" t="s">
         <v>642</v>
       </c>
@@ -6513,7 +6682,10 @@
         <v>447</v>
       </c>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="15">
+        <v>44253</v>
+      </c>
       <c r="C238" s="7" t="s">
         <v>445</v>
       </c>
@@ -6527,7 +6699,10 @@
         <v>449</v>
       </c>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="15">
+        <v>44253</v>
+      </c>
       <c r="C239" t="s">
         <v>445</v>
       </c>
@@ -6541,7 +6716,10 @@
         <v>451</v>
       </c>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="15">
+        <v>44253</v>
+      </c>
       <c r="C240" t="s">
         <v>445</v>
       </c>
@@ -6555,7 +6733,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="15">
+        <v>44253</v>
+      </c>
       <c r="C241" s="7" t="s">
         <v>445</v>
       </c>
@@ -6569,7 +6750,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="15">
+        <v>44253</v>
+      </c>
       <c r="B242" t="s">
         <v>643</v>
       </c>
@@ -6586,7 +6770,10 @@
         <v>457</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="15">
+        <v>44253</v>
+      </c>
       <c r="C243" s="7" t="s">
         <v>455</v>
       </c>
@@ -6600,7 +6787,10 @@
         <v>459</v>
       </c>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="15">
+        <v>44253</v>
+      </c>
       <c r="C244" t="s">
         <v>455</v>
       </c>
@@ -6614,7 +6804,10 @@
         <v>461</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="15">
+        <v>44253</v>
+      </c>
       <c r="C245" t="s">
         <v>455</v>
       </c>
@@ -6628,7 +6821,10 @@
         <v>463</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="15">
+        <v>44253</v>
+      </c>
       <c r="C246" t="s">
         <v>455</v>
       </c>
@@ -6642,7 +6838,10 @@
         <v>465</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="15">
+        <v>44253</v>
+      </c>
       <c r="C247" t="s">
         <v>455</v>
       </c>
@@ -6656,7 +6855,10 @@
         <v>467</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="15">
+        <v>44253</v>
+      </c>
       <c r="C248" t="s">
         <v>455</v>
       </c>
@@ -6670,7 +6872,10 @@
         <v>469</v>
       </c>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="15">
+        <v>44253</v>
+      </c>
       <c r="C249" t="s">
         <v>455</v>
       </c>
@@ -6684,7 +6889,10 @@
         <v>471</v>
       </c>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="15">
+        <v>44253</v>
+      </c>
       <c r="C250" t="s">
         <v>455</v>
       </c>
@@ -6698,7 +6906,10 @@
         <v>473</v>
       </c>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="15">
+        <v>44253</v>
+      </c>
       <c r="C251" t="s">
         <v>455</v>
       </c>
@@ -6712,7 +6923,10 @@
         <v>475</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="15">
+        <v>44253</v>
+      </c>
       <c r="C252" t="s">
         <v>455</v>
       </c>
@@ -6726,7 +6940,10 @@
         <v>477</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="15">
+        <v>44253</v>
+      </c>
       <c r="C253" t="s">
         <v>455</v>
       </c>
@@ -6740,7 +6957,10 @@
         <v>479</v>
       </c>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="15">
+        <v>44253</v>
+      </c>
       <c r="C254" t="s">
         <v>455</v>
       </c>
@@ -6754,7 +6974,10 @@
         <v>481</v>
       </c>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="15">
+        <v>44253</v>
+      </c>
       <c r="C255" t="s">
         <v>455</v>
       </c>
@@ -6768,7 +6991,10 @@
         <v>483</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="15">
+        <v>44253</v>
+      </c>
       <c r="C256" t="s">
         <v>455</v>
       </c>
@@ -6782,7 +7008,10 @@
         <v>485</v>
       </c>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="15">
+        <v>44253</v>
+      </c>
       <c r="C257" t="s">
         <v>455</v>
       </c>
@@ -6796,7 +7025,10 @@
         <v>487</v>
       </c>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="15">
+        <v>44253</v>
+      </c>
       <c r="C258" t="s">
         <v>455</v>
       </c>
@@ -6810,7 +7042,10 @@
         <v>489</v>
       </c>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="15">
+        <v>44253</v>
+      </c>
       <c r="C259" s="4" t="s">
         <v>455</v>
       </c>
@@ -6824,7 +7059,10 @@
         <v>491</v>
       </c>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="15">
+        <v>44253</v>
+      </c>
       <c r="C260" s="4" t="s">
         <v>455</v>
       </c>
@@ -6838,7 +7076,10 @@
         <v>493</v>
       </c>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="15">
+        <v>44253</v>
+      </c>
       <c r="C261" s="4" t="s">
         <v>455</v>
       </c>
@@ -6852,7 +7093,10 @@
         <v>495</v>
       </c>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="15">
+        <v>44253</v>
+      </c>
       <c r="C262" s="4" t="s">
         <v>455</v>
       </c>
@@ -6866,7 +7110,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="15">
+        <v>44253</v>
+      </c>
       <c r="C263" s="4" t="s">
         <v>455</v>
       </c>
@@ -6880,7 +7127,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="15">
+        <v>44253</v>
+      </c>
       <c r="C264" s="4" t="s">
         <v>455</v>
       </c>
@@ -6894,7 +7144,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="15">
+        <v>44253</v>
+      </c>
       <c r="C265" s="4" t="s">
         <v>455</v>
       </c>
@@ -6908,7 +7161,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="15">
+        <v>44253</v>
+      </c>
       <c r="C266" s="4" t="s">
         <v>455</v>
       </c>
@@ -6922,7 +7178,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="15">
+        <v>44253</v>
+      </c>
       <c r="C267" s="4" t="s">
         <v>455</v>
       </c>
@@ -6936,7 +7195,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="15">
+        <v>44253</v>
+      </c>
       <c r="C268" s="4" t="s">
         <v>455</v>
       </c>
@@ -6950,7 +7212,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="15">
+        <v>44253</v>
+      </c>
       <c r="C269" s="4" t="s">
         <v>455</v>
       </c>
@@ -6964,7 +7229,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="15">
+        <v>44253</v>
+      </c>
       <c r="C270" s="4" t="s">
         <v>455</v>
       </c>
@@ -6978,7 +7246,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="15">
+        <v>44256</v>
+      </c>
       <c r="B271" t="s">
         <v>644</v>
       </c>
@@ -6995,7 +7266,10 @@
         <v>507</v>
       </c>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="15">
+        <v>44256</v>
+      </c>
       <c r="C272" s="4" t="s">
         <v>505</v>
       </c>
@@ -7009,7 +7283,10 @@
         <v>509</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="15">
+        <v>44256</v>
+      </c>
       <c r="C273" s="4" t="s">
         <v>505</v>
       </c>
@@ -7023,7 +7300,10 @@
         <v>511</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="15">
+        <v>44256</v>
+      </c>
       <c r="C274" s="4" t="s">
         <v>505</v>
       </c>
@@ -7037,7 +7317,10 @@
         <v>513</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="15">
+        <v>44256</v>
+      </c>
       <c r="C275" s="4" t="s">
         <v>505</v>
       </c>
@@ -7051,7 +7334,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="15">
+        <v>44256</v>
+      </c>
       <c r="B276" t="s">
         <v>645</v>
       </c>
@@ -7068,7 +7354,10 @@
         <v>517</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="15">
+        <v>44256</v>
+      </c>
       <c r="C277" s="4" t="s">
         <v>515</v>
       </c>
@@ -7082,7 +7371,10 @@
         <v>519</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="15">
+        <v>44256</v>
+      </c>
       <c r="C278" s="4" t="s">
         <v>515</v>
       </c>
@@ -7096,7 +7388,10 @@
         <v>521</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="15">
+        <v>44256</v>
+      </c>
       <c r="C279" s="4" t="s">
         <v>515</v>
       </c>
@@ -7110,7 +7405,10 @@
         <v>523</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="15">
+        <v>44256</v>
+      </c>
       <c r="C280" s="4" t="s">
         <v>515</v>
       </c>
@@ -7124,7 +7422,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="15">
+        <v>44257</v>
+      </c>
       <c r="B281" t="s">
         <v>646</v>
       </c>
@@ -7141,7 +7442,10 @@
         <v>527</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="15">
+        <v>44257</v>
+      </c>
       <c r="C282" s="4" t="s">
         <v>525</v>
       </c>
@@ -7155,7 +7459,10 @@
         <v>529</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="15">
+        <v>44257</v>
+      </c>
       <c r="C283" s="4" t="s">
         <v>525</v>
       </c>
@@ -7169,7 +7476,10 @@
         <v>531</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="15">
+        <v>44257</v>
+      </c>
       <c r="C284" s="4" t="s">
         <v>525</v>
       </c>
@@ -7183,7 +7493,10 @@
         <v>533</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="15">
+        <v>44257</v>
+      </c>
       <c r="C285" s="4" t="s">
         <v>525</v>
       </c>
@@ -7197,7 +7510,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="15">
+        <v>44257</v>
+      </c>
       <c r="B286" t="s">
         <v>647</v>
       </c>
@@ -7214,7 +7530,10 @@
         <v>537</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="15">
+        <v>44257</v>
+      </c>
       <c r="C287" s="4" t="s">
         <v>535</v>
       </c>
@@ -7228,7 +7547,10 @@
         <v>539</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="15">
+        <v>44257</v>
+      </c>
       <c r="C288" s="4" t="s">
         <v>535</v>
       </c>
@@ -7242,7 +7564,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="15">
+        <v>44257</v>
+      </c>
       <c r="C289" s="4" t="s">
         <v>535</v>
       </c>
@@ -7256,7 +7581,10 @@
         <v>543</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="15">
+        <v>44257</v>
+      </c>
       <c r="C290" s="4" t="s">
         <v>535</v>
       </c>
@@ -7270,7 +7598,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="15">
+        <v>44258</v>
+      </c>
       <c r="B291" t="s">
         <v>648</v>
       </c>
@@ -7287,7 +7618,10 @@
         <v>547</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="15">
+        <v>44258</v>
+      </c>
       <c r="C292" s="4" t="s">
         <v>545</v>
       </c>
@@ -7301,7 +7635,10 @@
         <v>549</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="15">
+        <v>44258</v>
+      </c>
       <c r="C293" s="4" t="s">
         <v>545</v>
       </c>
@@ -7315,7 +7652,10 @@
         <v>551</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="15">
+        <v>44258</v>
+      </c>
       <c r="C294" s="4" t="s">
         <v>545</v>
       </c>
@@ -7329,7 +7669,10 @@
         <v>553</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="15">
+        <v>44258</v>
+      </c>
       <c r="C295" s="4" t="s">
         <v>545</v>
       </c>
@@ -7343,7 +7686,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="15">
+        <v>44258</v>
+      </c>
       <c r="B296" t="s">
         <v>649</v>
       </c>
@@ -7360,7 +7706,10 @@
         <v>557</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="15">
+        <v>44258</v>
+      </c>
       <c r="C297" s="4" t="s">
         <v>555</v>
       </c>
@@ -7374,7 +7723,10 @@
         <v>559</v>
       </c>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="15">
+        <v>44258</v>
+      </c>
       <c r="C298" s="4" t="s">
         <v>555</v>
       </c>
@@ -7388,7 +7740,10 @@
         <v>561</v>
       </c>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="15">
+        <v>44258</v>
+      </c>
       <c r="C299" s="4" t="s">
         <v>555</v>
       </c>
@@ -7402,7 +7757,10 @@
         <v>563</v>
       </c>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="15">
+        <v>44258</v>
+      </c>
       <c r="C300" s="4" t="s">
         <v>555</v>
       </c>
@@ -7416,7 +7774,10 @@
         <v>565</v>
       </c>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="15">
+        <v>44258</v>
+      </c>
       <c r="C301" s="4" t="s">
         <v>555</v>
       </c>
@@ -7430,7 +7791,10 @@
         <v>567</v>
       </c>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="15">
+        <v>44258</v>
+      </c>
       <c r="C302" s="4" t="s">
         <v>555</v>
       </c>
@@ -7444,7 +7808,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="15">
+        <v>44259</v>
+      </c>
       <c r="B303" t="s">
         <v>650</v>
       </c>
@@ -7461,7 +7828,10 @@
         <v>571</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="15">
+        <v>44259</v>
+      </c>
       <c r="C304" s="4" t="s">
         <v>569</v>
       </c>
@@ -7475,7 +7845,10 @@
         <v>573</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="15">
+        <v>44259</v>
+      </c>
       <c r="C305" s="4" t="s">
         <v>569</v>
       </c>
@@ -7489,7 +7862,10 @@
         <v>575</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="15">
+        <v>44259</v>
+      </c>
       <c r="C306" s="4" t="s">
         <v>569</v>
       </c>
@@ -7503,7 +7879,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="15">
+        <v>44259</v>
+      </c>
       <c r="C307" s="4" t="s">
         <v>569</v>
       </c>
@@ -7517,7 +7896,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="15">
+        <v>44259</v>
+      </c>
       <c r="B308" t="s">
         <v>651</v>
       </c>
@@ -7534,7 +7916,10 @@
         <v>581</v>
       </c>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="15">
+        <v>44259</v>
+      </c>
       <c r="C309" s="4" t="s">
         <v>579</v>
       </c>
@@ -7548,7 +7933,10 @@
         <v>583</v>
       </c>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="15">
+        <v>44259</v>
+      </c>
       <c r="C310" s="4" t="s">
         <v>579</v>
       </c>
@@ -7562,7 +7950,10 @@
         <v>585</v>
       </c>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="15">
+        <v>44259</v>
+      </c>
       <c r="C311" s="4" t="s">
         <v>579</v>
       </c>
@@ -7576,7 +7967,10 @@
         <v>587</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="15">
+        <v>44259</v>
+      </c>
       <c r="C312" s="4" t="s">
         <v>579</v>
       </c>
@@ -7590,7 +7984,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="15">
+        <v>44259</v>
+      </c>
       <c r="C313" s="4" t="s">
         <v>579</v>
       </c>
@@ -7604,7 +8001,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="15">
+        <v>44260</v>
+      </c>
       <c r="B314" t="s">
         <v>652</v>
       </c>
@@ -7621,7 +8021,10 @@
         <v>592</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="15">
+        <v>44260</v>
+      </c>
       <c r="C315" s="4" t="s">
         <v>590</v>
       </c>
@@ -7635,7 +8038,10 @@
         <v>594</v>
       </c>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="15">
+        <v>44260</v>
+      </c>
       <c r="C316" s="4" t="s">
         <v>590</v>
       </c>
@@ -7649,7 +8055,10 @@
         <v>596</v>
       </c>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="15">
+        <v>44260</v>
+      </c>
       <c r="C317" s="4" t="s">
         <v>590</v>
       </c>
@@ -7663,7 +8072,10 @@
         <v>598</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="15">
+        <v>44260</v>
+      </c>
       <c r="C318" s="4" t="s">
         <v>590</v>
       </c>
@@ -7677,7 +8089,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" s="15">
+        <v>44260</v>
+      </c>
       <c r="B319" t="s">
         <v>653</v>
       </c>
@@ -7694,7 +8109,10 @@
         <v>602</v>
       </c>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="15">
+        <v>44260</v>
+      </c>
       <c r="C320" s="4" t="s">
         <v>600</v>
       </c>
@@ -7708,7 +8126,10 @@
         <v>604</v>
       </c>
     </row>
-    <row r="321" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" s="15">
+        <v>44260</v>
+      </c>
       <c r="C321" s="4" t="s">
         <v>600</v>
       </c>
@@ -7722,7 +8143,10 @@
         <v>606</v>
       </c>
     </row>
-    <row r="322" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="15">
+        <v>44260</v>
+      </c>
       <c r="C322" s="4" t="s">
         <v>600</v>
       </c>
@@ -7736,7 +8160,10 @@
         <v>608</v>
       </c>
     </row>
-    <row r="323" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="15">
+        <v>44260</v>
+      </c>
       <c r="C323" s="4" t="s">
         <v>600</v>
       </c>
@@ -7750,7 +8177,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" s="15">
+        <v>44260</v>
+      </c>
       <c r="C324" s="4" t="s">
         <v>600</v>
       </c>
@@ -7769,12 +8199,13 @@
     <hyperlink ref="B22" r:id="rId1" xr:uid="{149CABA5-4CF7-4C7D-82BB-B47A8B72AA70}"/>
     <hyperlink ref="B43" r:id="rId2" xr:uid="{2AB2D1B5-B521-4F2C-85C3-8EDB2ED488C9}"/>
     <hyperlink ref="B48" r:id="rId3" xr:uid="{ACDD217E-409C-48CD-B51A-B2D303DC74D7}"/>
+    <hyperlink ref="B146" r:id="rId4" xr:uid="{28CAB90C-356F-4BDA-A8AB-83E01B30DE3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <tableParts count="2">
-    <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>